--- a/team_specific_matrix/UNLV_A.xlsx
+++ b/team_specific_matrix/UNLV_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2203389830508475</v>
+        <v>0.2192982456140351</v>
       </c>
       <c r="C2">
-        <v>0.5141242937853108</v>
+        <v>0.5219298245614035</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01129943502824859</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1412429378531073</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1129943502824859</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01098901098901099</v>
+        <v>0.008264462809917356</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01098901098901099</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7802197802197802</v>
+        <v>0.7851239669421488</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1978021978021978</v>
+        <v>0.1900826446280992</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02325581395348837</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7209302325581395</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2558139534883721</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.04137931034482759</v>
+        <v>0.0427807486631016</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006896551724137931</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05517241379310345</v>
+        <v>0.0427807486631016</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2413793103448276</v>
+        <v>0.2887700534759358</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1724137931034483</v>
+        <v>0.1711229946524064</v>
       </c>
       <c r="R6">
-        <v>0.04137931034482759</v>
+        <v>0.053475935828877</v>
       </c>
       <c r="S6">
-        <v>0.4413793103448276</v>
+        <v>0.3903743315508021</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1076923076923077</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03846153846153846</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.07692307692307693</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1230769230769231</v>
+        <v>0.1233766233766234</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01538461538461539</v>
+        <v>0.01948051948051948</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1846153846153846</v>
+        <v>0.1883116883116883</v>
       </c>
       <c r="R7">
-        <v>0.06923076923076923</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="S7">
-        <v>0.3846153846153846</v>
+        <v>0.3766233766233766</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08214285714285714</v>
+        <v>0.08611111111111111</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01428571428571429</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06428571428571428</v>
+        <v>0.06111111111111111</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1321428571428571</v>
+        <v>0.1138888888888889</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01071428571428571</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1714285714285714</v>
+        <v>0.1777777777777778</v>
       </c>
       <c r="R8">
-        <v>0.1107142857142857</v>
+        <v>0.1027777777777778</v>
       </c>
       <c r="S8">
-        <v>0.4142857142857143</v>
+        <v>0.4277777777777778</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07692307692307693</v>
+        <v>0.08609271523178808</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008547008547008548</v>
+        <v>0.006622516556291391</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05982905982905983</v>
+        <v>0.0728476821192053</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08547008547008547</v>
+        <v>0.09271523178807947</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0170940170940171</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2478632478632479</v>
+        <v>0.2317880794701987</v>
       </c>
       <c r="R9">
-        <v>0.06837606837606838</v>
+        <v>0.06622516556291391</v>
       </c>
       <c r="S9">
-        <v>0.4358974358974359</v>
+        <v>0.4304635761589404</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1080402010050251</v>
+        <v>0.1084812623274162</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03894472361809045</v>
+        <v>0.03353057199211045</v>
       </c>
       <c r="E10">
-        <v>0.001256281407035176</v>
+        <v>0.0009861932938856016</v>
       </c>
       <c r="F10">
-        <v>0.06532663316582915</v>
+        <v>0.0650887573964497</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1155778894472362</v>
+        <v>0.1252465483234714</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01381909547738694</v>
+        <v>0.01676528599605523</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2537688442211055</v>
+        <v>0.2495069033530572</v>
       </c>
       <c r="R10">
-        <v>0.07412060301507538</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S10">
-        <v>0.3291457286432161</v>
+        <v>0.3234714003944773</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.09497206703910614</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09497206703910614</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="K11">
-        <v>0.1508379888268156</v>
+        <v>0.162037037037037</v>
       </c>
       <c r="L11">
-        <v>0.6312849162011173</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02793296089385475</v>
+        <v>0.02314814814814815</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8050847457627118</v>
+        <v>0.8029197080291971</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1355932203389831</v>
+        <v>0.1386861313868613</v>
       </c>
       <c r="K12">
-        <v>0.01694915254237288</v>
+        <v>0.0145985401459854</v>
       </c>
       <c r="L12">
-        <v>0.02542372881355932</v>
+        <v>0.0218978102189781</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01694915254237288</v>
+        <v>0.0218978102189781</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.71875</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1875</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09375</v>
+        <v>0.08108108108108109</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.007092198581560284</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1560283687943262</v>
+        <v>0.1526315789473684</v>
       </c>
       <c r="I15">
-        <v>0.0425531914893617</v>
+        <v>0.05789473684210526</v>
       </c>
       <c r="J15">
-        <v>0.4326241134751773</v>
+        <v>0.4</v>
       </c>
       <c r="K15">
-        <v>0.02836879432624113</v>
+        <v>0.03684210526315789</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01418439716312057</v>
+        <v>0.01052631578947368</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05673758865248227</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2624113475177305</v>
+        <v>0.2736842105263158</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03225806451612903</v>
+        <v>0.03726708074534162</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1129032258064516</v>
+        <v>0.1366459627329193</v>
       </c>
       <c r="I16">
-        <v>0.1129032258064516</v>
+        <v>0.1055900621118012</v>
       </c>
       <c r="J16">
-        <v>0.3548387096774194</v>
+        <v>0.3664596273291926</v>
       </c>
       <c r="K16">
-        <v>0.1129032258064516</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01612903225806452</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="N16">
-        <v>0.008064516129032258</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="O16">
-        <v>0.04838709677419355</v>
+        <v>0.05590062111801242</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2016129032258064</v>
+        <v>0.1801242236024845</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01829268292682927</v>
+        <v>0.01951219512195122</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1829268292682927</v>
+        <v>0.1853658536585366</v>
       </c>
       <c r="I17">
-        <v>0.08841463414634146</v>
+        <v>0.08536585365853659</v>
       </c>
       <c r="J17">
-        <v>0.4176829268292683</v>
+        <v>0.4097560975609756</v>
       </c>
       <c r="K17">
-        <v>0.08536585365853659</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.0274390243902439</v>
+        <v>0.02195121951219512</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07317073170731707</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1067073170731707</v>
+        <v>0.1219512195121951</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03603603603603604</v>
+        <v>0.04137931034482759</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1891891891891892</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="I18">
-        <v>0.09009009009009009</v>
+        <v>0.1103448275862069</v>
       </c>
       <c r="J18">
-        <v>0.4054054054054054</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="K18">
-        <v>0.0990990990990991</v>
+        <v>0.0896551724137931</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009009009009009009</v>
+        <v>0.01379310344827586</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06306306306306306</v>
+        <v>0.04827586206896552</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1081081081081081</v>
+        <v>0.1103448275862069</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01664532650448143</v>
+        <v>0.01814516129032258</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2112676056338028</v>
+        <v>0.2066532258064516</v>
       </c>
       <c r="I19">
-        <v>0.07298335467349552</v>
+        <v>0.07056451612903226</v>
       </c>
       <c r="J19">
-        <v>0.3597951344430217</v>
+        <v>0.3618951612903226</v>
       </c>
       <c r="K19">
-        <v>0.11651728553137</v>
+        <v>0.1108870967741935</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02560819462227913</v>
+        <v>0.02318548387096774</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08578745198463508</v>
+        <v>0.09173387096774194</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1113956466069142</v>
+        <v>0.1169354838709677</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UNLV_A.xlsx
+++ b/team_specific_matrix/UNLV_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2192982456140351</v>
+        <v>0.2059925093632959</v>
       </c>
       <c r="C2">
-        <v>0.5219298245614035</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0131578947368421</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1403508771929824</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1052631578947368</v>
+        <v>0.09737827715355805</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.008264462809917356</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01652892561983471</v>
+        <v>0.01324503311258278</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7851239669421488</v>
+        <v>0.7880794701986755</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1900826446280992</v>
+        <v>0.1854304635761589</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0196078431372549</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7450980392156863</v>
+        <v>0.7543859649122807</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2352941176470588</v>
+        <v>0.2280701754385965</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0427807486631016</v>
+        <v>0.0430622009569378</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0053475935828877</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="F6">
-        <v>0.0427807486631016</v>
+        <v>0.03827751196172249</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2887700534759358</v>
+        <v>0.291866028708134</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0053475935828877</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1711229946524064</v>
+        <v>0.1674641148325359</v>
       </c>
       <c r="R6">
-        <v>0.053475935828877</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="S6">
-        <v>0.3903743315508021</v>
+        <v>0.3971291866028708</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1038961038961039</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.04545454545454546</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06493506493506493</v>
+        <v>0.05649717514124294</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1233766233766234</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01948051948051948</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1883116883116883</v>
+        <v>0.2033898305084746</v>
       </c>
       <c r="R7">
-        <v>0.07792207792207792</v>
+        <v>0.07344632768361582</v>
       </c>
       <c r="S7">
-        <v>0.3766233766233766</v>
+        <v>0.3615819209039548</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08611111111111111</v>
+        <v>0.08542713567839195</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01666666666666667</v>
+        <v>0.01758793969849246</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06111111111111111</v>
+        <v>0.05778894472361809</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1138888888888889</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01388888888888889</v>
+        <v>0.01256281407035176</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1777777777777778</v>
+        <v>0.1683417085427136</v>
       </c>
       <c r="R8">
-        <v>0.1027777777777778</v>
+        <v>0.1030150753768844</v>
       </c>
       <c r="S8">
-        <v>0.4277777777777778</v>
+        <v>0.4296482412060301</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08609271523178808</v>
+        <v>0.1017964071856287</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006622516556291391</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0728476821192053</v>
+        <v>0.0658682634730539</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09271523178807947</v>
+        <v>0.09580838323353294</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01324503311258278</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2317880794701987</v>
+        <v>0.2335329341317365</v>
       </c>
       <c r="R9">
-        <v>0.06622516556291391</v>
+        <v>0.07784431137724551</v>
       </c>
       <c r="S9">
-        <v>0.4304635761589404</v>
+        <v>0.407185628742515</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1084812623274162</v>
+        <v>0.114065180102916</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03353057199211045</v>
+        <v>0.03173241852487135</v>
       </c>
       <c r="E10">
-        <v>0.0009861932938856016</v>
+        <v>0.0008576329331046312</v>
       </c>
       <c r="F10">
-        <v>0.0650887573964497</v>
+        <v>0.06775300171526587</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1252465483234714</v>
+        <v>0.1269296740994854</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01676528599605523</v>
+        <v>0.01543739279588336</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2495069033530572</v>
+        <v>0.2341337907375643</v>
       </c>
       <c r="R10">
-        <v>0.07692307692307693</v>
+        <v>0.07632933104631218</v>
       </c>
       <c r="S10">
-        <v>0.3234714003944773</v>
+        <v>0.3327615780445969</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1111111111111111</v>
+        <v>0.1124497991967871</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09259259259259259</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="K11">
-        <v>0.162037037037037</v>
+        <v>0.1606425702811245</v>
       </c>
       <c r="L11">
-        <v>0.6111111111111112</v>
+        <v>0.6104417670682731</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02314814814814815</v>
+        <v>0.02409638554216868</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8029197080291971</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1386861313868613</v>
+        <v>0.1383647798742138</v>
       </c>
       <c r="K12">
-        <v>0.0145985401459854</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="L12">
-        <v>0.0218978102189781</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0218978102189781</v>
+        <v>0.02515723270440252</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7297297297297297</v>
+        <v>0.7317073170731707</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1891891891891892</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08108108108108109</v>
+        <v>0.07317073170731707</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01578947368421053</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1526315789473684</v>
+        <v>0.1462264150943396</v>
       </c>
       <c r="I15">
-        <v>0.05789473684210526</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="J15">
-        <v>0.4</v>
+        <v>0.4056603773584906</v>
       </c>
       <c r="K15">
-        <v>0.03684210526315789</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01052631578947368</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05263157894736842</v>
+        <v>0.05188679245283019</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2736842105263158</v>
+        <v>0.2735849056603774</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.03726708074534162</v>
+        <v>0.0310880829015544</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1366459627329193</v>
+        <v>0.1295336787564767</v>
       </c>
       <c r="I16">
-        <v>0.1055900621118012</v>
+        <v>0.1036269430051813</v>
       </c>
       <c r="J16">
-        <v>0.3664596273291926</v>
+        <v>0.3937823834196891</v>
       </c>
       <c r="K16">
-        <v>0.09316770186335403</v>
+        <v>0.09844559585492228</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01863354037267081</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="N16">
-        <v>0.006211180124223602</v>
+        <v>0.005181347150259068</v>
       </c>
       <c r="O16">
-        <v>0.05590062111801242</v>
+        <v>0.05699481865284974</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1801242236024845</v>
+        <v>0.1606217616580311</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01951219512195122</v>
+        <v>0.01789709172259508</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1853658536585366</v>
+        <v>0.1901565995525727</v>
       </c>
       <c r="I17">
-        <v>0.08536585365853659</v>
+        <v>0.08053691275167785</v>
       </c>
       <c r="J17">
-        <v>0.4097560975609756</v>
+        <v>0.4183445190156599</v>
       </c>
       <c r="K17">
-        <v>0.07804878048780488</v>
+        <v>0.08053691275167785</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02195121951219512</v>
+        <v>0.02013422818791946</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07804878048780488</v>
+        <v>0.07606263982102908</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1219512195121951</v>
+        <v>0.116331096196868</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.04137931034482759</v>
+        <v>0.03658536585365853</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2068965517241379</v>
+        <v>0.2073170731707317</v>
       </c>
       <c r="I18">
-        <v>0.1103448275862069</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="J18">
-        <v>0.3793103448275862</v>
+        <v>0.3963414634146342</v>
       </c>
       <c r="K18">
-        <v>0.0896551724137931</v>
+        <v>0.07926829268292683</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01379310344827586</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04827586206896552</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1103448275862069</v>
+        <v>0.1158536585365854</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01814516129032258</v>
+        <v>0.01964285714285714</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2066532258064516</v>
+        <v>0.2017857142857143</v>
       </c>
       <c r="I19">
-        <v>0.07056451612903226</v>
+        <v>0.07232142857142858</v>
       </c>
       <c r="J19">
-        <v>0.3618951612903226</v>
+        <v>0.3651785714285714</v>
       </c>
       <c r="K19">
-        <v>0.1108870967741935</v>
+        <v>0.1142857142857143</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02318548387096774</v>
+        <v>0.02232142857142857</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.09173387096774194</v>
+        <v>0.08839285714285715</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1169354838709677</v>
+        <v>0.1160714285714286</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UNLV_A.xlsx
+++ b/team_specific_matrix/UNLV_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2059925093632959</v>
+        <v>0.2135231316725979</v>
       </c>
       <c r="C2">
-        <v>0.550561797752809</v>
+        <v>0.5338078291814946</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01123595505617977</v>
+        <v>0.01067615658362989</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1348314606741573</v>
+        <v>0.1423487544483986</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09737827715355805</v>
+        <v>0.099644128113879</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01324503311258278</v>
+        <v>0.01935483870967742</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01324503311258278</v>
+        <v>0.01290322580645161</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7880794701986755</v>
+        <v>0.7870967741935484</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1854304635761589</v>
+        <v>0.1806451612903226</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7543859649122807</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2280701754385965</v>
+        <v>0.2241379310344828</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0430622009569378</v>
+        <v>0.04524886877828054</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004784688995215311</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="E6">
-        <v>0.004784688995215311</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="F6">
-        <v>0.03827751196172249</v>
+        <v>0.04072398190045249</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.291866028708134</v>
+        <v>0.2895927601809955</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.004784688995215311</v>
+        <v>0.004524886877828055</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1674641148325359</v>
+        <v>0.16289592760181</v>
       </c>
       <c r="R6">
-        <v>0.04784688995215311</v>
+        <v>0.04977375565610859</v>
       </c>
       <c r="S6">
-        <v>0.3971291866028708</v>
+        <v>0.3981900452488688</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1016949152542373</v>
+        <v>0.0989010989010989</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05084745762711865</v>
+        <v>0.04945054945054945</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05649717514124294</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1186440677966102</v>
+        <v>0.1208791208791209</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03389830508474576</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2033898305084746</v>
+        <v>0.2032967032967033</v>
       </c>
       <c r="R7">
-        <v>0.07344632768361582</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S7">
-        <v>0.3615819209039548</v>
+        <v>0.3681318681318682</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08542713567839195</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01758793969849246</v>
+        <v>0.01728395061728395</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05778894472361809</v>
+        <v>0.05925925925925926</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1256281407035176</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01256281407035176</v>
+        <v>0.01234567901234568</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1683417085427136</v>
+        <v>0.1703703703703704</v>
       </c>
       <c r="R8">
-        <v>0.1030150753768844</v>
+        <v>0.1012345679012346</v>
       </c>
       <c r="S8">
-        <v>0.4296482412060301</v>
+        <v>0.4271604938271605</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1017964071856287</v>
+        <v>0.1067415730337079</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005988023952095809</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.005617977528089887</v>
       </c>
       <c r="F9">
-        <v>0.0658682634730539</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09580838323353294</v>
+        <v>0.09550561797752809</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01197604790419162</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2335329341317365</v>
+        <v>0.2191011235955056</v>
       </c>
       <c r="R9">
-        <v>0.07784431137724551</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="S9">
-        <v>0.407185628742515</v>
+        <v>0.398876404494382</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.114065180102916</v>
+        <v>0.1129431162407255</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03173241852487135</v>
+        <v>0.0313272877164056</v>
       </c>
       <c r="E10">
-        <v>0.0008576329331046312</v>
+        <v>0.0008244023083264633</v>
       </c>
       <c r="F10">
-        <v>0.06775300171526587</v>
+        <v>0.07007419620774938</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1269296740994854</v>
+        <v>0.1294311624072547</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01543739279588336</v>
+        <v>0.01483924154987634</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2341337907375643</v>
+        <v>0.2308326463314097</v>
       </c>
       <c r="R10">
-        <v>0.07632933104631218</v>
+        <v>0.07749381698268755</v>
       </c>
       <c r="S10">
-        <v>0.3327615780445969</v>
+        <v>0.3322341302555647</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1124497991967871</v>
+        <v>0.1085271317829457</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09236947791164658</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="K11">
-        <v>0.1606425702811245</v>
+        <v>0.1627906976744186</v>
       </c>
       <c r="L11">
-        <v>0.6104417670682731</v>
+        <v>0.6085271317829457</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02409638554216868</v>
+        <v>0.02713178294573643</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7924528301886793</v>
+        <v>0.7939393939393939</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1383647798742138</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K12">
-        <v>0.01886792452830189</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="L12">
-        <v>0.02515723270440252</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02515723270440252</v>
+        <v>0.02424242424242424</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01886792452830189</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1462264150943396</v>
+        <v>0.1422018348623853</v>
       </c>
       <c r="I15">
-        <v>0.05660377358490566</v>
+        <v>0.05504587155963303</v>
       </c>
       <c r="J15">
-        <v>0.4056603773584906</v>
+        <v>0.4082568807339449</v>
       </c>
       <c r="K15">
-        <v>0.03773584905660377</v>
+        <v>0.04587155963302753</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009433962264150943</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05188679245283019</v>
+        <v>0.05045871559633028</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2735849056603774</v>
+        <v>0.2706422018348624</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0310880829015544</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1295336787564767</v>
+        <v>0.1293532338308458</v>
       </c>
       <c r="I16">
-        <v>0.1036269430051813</v>
+        <v>0.09950248756218906</v>
       </c>
       <c r="J16">
-        <v>0.3937823834196891</v>
+        <v>0.3880597014925373</v>
       </c>
       <c r="K16">
-        <v>0.09844559585492228</v>
+        <v>0.09950248756218906</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02072538860103627</v>
+        <v>0.01990049751243781</v>
       </c>
       <c r="N16">
-        <v>0.005181347150259068</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="O16">
-        <v>0.05699481865284974</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1606217616580311</v>
+        <v>0.1691542288557214</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01789709172259508</v>
+        <v>0.01746724890829694</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1901565995525727</v>
+        <v>0.1877729257641921</v>
       </c>
       <c r="I17">
-        <v>0.08053691275167785</v>
+        <v>0.08078602620087336</v>
       </c>
       <c r="J17">
-        <v>0.4183445190156599</v>
+        <v>0.4213973799126637</v>
       </c>
       <c r="K17">
-        <v>0.08053691275167785</v>
+        <v>0.08078602620087336</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02013422818791946</v>
+        <v>0.01965065502183406</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07606263982102908</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.116331096196868</v>
+        <v>0.1179039301310044</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03658536585365853</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2073170731707317</v>
+        <v>0.1988304093567251</v>
       </c>
       <c r="I18">
-        <v>0.0975609756097561</v>
+        <v>0.0935672514619883</v>
       </c>
       <c r="J18">
-        <v>0.3963414634146342</v>
+        <v>0.4035087719298245</v>
       </c>
       <c r="K18">
-        <v>0.07926829268292683</v>
+        <v>0.08187134502923976</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01829268292682927</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04878048780487805</v>
+        <v>0.05847953216374269</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1158536585365854</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01964285714285714</v>
+        <v>0.0188034188034188</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2017857142857143</v>
+        <v>0.1974358974358974</v>
       </c>
       <c r="I19">
-        <v>0.07232142857142858</v>
+        <v>0.07777777777777778</v>
       </c>
       <c r="J19">
-        <v>0.3651785714285714</v>
+        <v>0.3649572649572649</v>
       </c>
       <c r="K19">
-        <v>0.1142857142857143</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02232142857142857</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.08839285714285715</v>
+        <v>0.08632478632478632</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1160714285714286</v>
+        <v>0.1222222222222222</v>
       </c>
     </row>
   </sheetData>
